--- a/A4 - pyla1/29-09-2023_14-09-05/tratamento4.xlsx
+++ b/A4 - pyla1/29-09-2023_14-09-05/tratamento4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F318064-DDC6-4F30-BA8C-993C47B80654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CE70A3-DA74-43C8-A864-32C66A23195C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -279,12 +279,21 @@
   <si>
     <t>Estatística descritiva</t>
   </si>
+  <si>
+    <t>Cobrim. S brilho</t>
+  </si>
+  <si>
+    <t>Media S brilho</t>
+  </si>
+  <si>
+    <t>Desv. Pad. S brilho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +344,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -350,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -415,12 +431,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,9 +500,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,6 +511,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3923,7 +3957,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Processado!$F$10:$F$11</c:f>
+              <c:f>Processado!$G$12:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3938,7 +3972,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Processado!$F$2,Processado!$F$2)</c:f>
+              <c:f>(Processado!$G$2,Processado!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4256,6 +4290,874 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Área de Cobertura</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processado!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobrim. S brilho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Processado!$A$2:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Processado!$F$2:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>87.697017802471933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.561533288500343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.872770827788131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.05791807983303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.577992058990354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.026163042536609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.175582127123974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.157585917854149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.301555390963919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.716826785884145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.849051219860179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.870593915982617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.416254696460349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.731001206272616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.789903489235343</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.420779220779224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.510344827586209</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.095450852965072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.549943883277216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.660080156584954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.487789605510329</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.980273845439783</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.395816572807725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.049199305421567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.753843082451588</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.69667738478028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.953567497248073</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.831356762049829</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.276775989350114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.788209606986896</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.53866248693835</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.320299217953078</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52.986900820498057</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.080736338599799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.675159926271277</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58.978220574606119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.239915634062754</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.362901026992645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.601429779383508</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.668660134877214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.247360116518998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57.614332861857612</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.6468280806168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.07349665924276</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.402148283992666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.821927277754732</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77.603843769373839</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.469876512411126</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.748410535876474</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.182259630948529</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.478438137055043</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.822552447552447</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.903114186851212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47.206823027718549</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.140179148582511</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.162944681875636</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.019223923104306</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.049240067549555</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69.499649286883326</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.652650822669102</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.372894532262251</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.08858480374505</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.284768211920529</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.667405764966738</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.424588992137238</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39.193892444145057</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.081534772182252</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.431601272534465</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>64.615655853314522</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62.192002154301875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.28203891300852</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.174865416744012</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.592602853580829</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.403826034972354</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>64.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>63.136004436434213</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.366131538063179</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>68.22660098522168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30.644768856447687</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.655685441020193</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.959546127281698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.786695589298631</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.625354777672658</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48.795327330250672</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.108271687962343</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65.617291201691529</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61.896189618961898</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.660977045320777</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.358438053470522</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.777838502527665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF61-4330-8869-DBA855F9CA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4299,9 +5201,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4318,20 +5219,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 19,09]</c:v>
                 </c:pt>
@@ -4361,16 +5276,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(74,18; 81,07]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(81,07; 87,96]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(87,96; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$L$4:$L$13</c:f>
+              <c:f>normalidade!$L$4:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0101010101010102</c:v>
                 </c:pt>
@@ -4400,10 +5321,17 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.0606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -4425,20 +5353,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 19,09]</c:v>
                 </c:pt>
@@ -4468,16 +5410,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(74,18; 81,07]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(81,07; 87,96]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(87,96; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$M$4:$M$13</c:f>
+              <c:f>normalidade!$M$4:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.91037808618514826</c:v>
                 </c:pt>
@@ -4507,10 +5455,17 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.3680604542388757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7195980716808168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70523458884744761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -4525,11 +5480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:overlap val="-20"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1539222943"/>
         <c:axId val="1539223359"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1539222943"/>
         <c:scaling>
@@ -4634,12 +5589,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5332,6 +6282,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -8942,6 +9932,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9569,13 +11075,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -9647,13 +11153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -9685,13 +11191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -9763,13 +11269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -9801,13 +11307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>81600</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>87360</xdr:rowOff>
@@ -9832,6 +11338,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D316AB8D-FDBB-4305-B7DD-138EE6520CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10265,7 +11809,7 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12842,10 +14386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70EAAED-2E1F-4803-8270-B1973955EBA5}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G4" sqref="G4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12855,11 +14399,12 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12875,14 +14420,17 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12898,15 +14446,19 @@
       <c r="E2" s="3">
         <v>87.957818346751296</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="30">
+        <f>IF(B2=0,"",100*(C2)/B2)</f>
+        <v>87.697017802471933</v>
+      </c>
+      <c r="G2" s="10">
         <f>AVERAGE(E2:E200)</f>
         <v>52.855816467813042</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12922,15 +14474,19 @@
       <c r="E3" s="3">
         <v>75.5615332885003</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F66" si="0">IF(B3=0,"",100*(C3)/B3)</f>
+        <v>75.561533288500343</v>
+      </c>
+      <c r="G3" s="10">
         <f>_xlfn.STDEV.S(E2:E200)</f>
         <v>14.300579288825407</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12946,14 +14502,19 @@
       <c r="E4" s="3">
         <v>53.886079318605198</v>
       </c>
-      <c r="F4" s="11">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>53.872770827788131</v>
+      </c>
+      <c r="G4" s="31">
+        <f>AVERAGE(F2:F200)</f>
+        <v>52.611093779900131</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12969,14 +14530,19 @@
       <c r="E5" s="3">
         <v>66.223149839116402</v>
       </c>
-      <c r="F5" s="11">
-        <v>232</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>66.05791807983303</v>
+      </c>
+      <c r="G5" s="31">
+        <f>_xlfn.STDEV.S(F2:F200)</f>
+        <v>14.459019323226476</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12992,84 +14558,101 @@
       <c r="E6" s="3">
         <v>47.646057855927303</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>47.577992058990354</v>
+      </c>
+      <c r="G6" s="11">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11543</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9930</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>86.052152819890793</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>86.026163042536609</v>
+      </c>
+      <c r="G7" s="11">
+        <v>232</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9534</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3735</v>
+      </c>
+      <c r="D8" s="3">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3">
+        <v>39.741976085588398</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>39.175582127123974</v>
+      </c>
+      <c r="G8" s="12">
         <f>MIN(E2:E200)</f>
         <v>19.086859688195901</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11543</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9930</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>86.052152819890793</v>
-      </c>
-      <c r="F7" s="12">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11930</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7654</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>64.157585917854107</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>64.157585917854149</v>
+      </c>
+      <c r="G9" s="12">
         <f>MAX(E2:E200)</f>
         <v>87.957818346751296</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9534</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3735</v>
-      </c>
-      <c r="D8" s="3">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3">
-        <v>39.741976085588398</v>
-      </c>
-      <c r="F8" s="13">
-        <f>100*F3/F2</f>
-        <v>27.055828940858106</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11930</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7654</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>64.157585917854107</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13085,14 +14668,19 @@
       <c r="E10" s="3">
         <v>50.301555390963898</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>50.301555390963919</v>
+      </c>
+      <c r="G10" s="13">
+        <f>100*G3/G2</f>
+        <v>27.055828940858106</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13108,50 +14696,71 @@
       <c r="E11" s="3">
         <v>28.783411014933801</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>28.716826785884145</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7009</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4335</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>61.849051219860101</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>61.849051219860179</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4142</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2397</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>57.870593915982603</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>57.870593915982617</v>
+      </c>
+      <c r="G13" s="11">
         <f>COUNT(A2:A200)</f>
         <v>99</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7009</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4335</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>61.849051219860101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4142</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2397</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>57.870593915982603</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13167,9 +14776,13 @@
       <c r="E14" s="3">
         <v>35.455803836266497</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>35.416254696460349</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13185,8 +14798,12 @@
       <c r="E15" s="3">
         <v>36.803377563329299</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>36.731001206272616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13202,8 +14819,12 @@
       <c r="E16" s="3">
         <v>68.7899034892353</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>68.789903489235343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13219,8 +14840,12 @@
       <c r="E17" s="3">
         <v>42.420779220779202</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>42.420779220779224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13236,8 +14861,12 @@
       <c r="E18" s="3">
         <v>56.565517241379297</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>56.510344827586209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13253,8 +14882,12 @@
       <c r="E19" s="3">
         <v>70.714865962632004</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>70.095450852965072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -13270,8 +14903,12 @@
       <c r="E20" s="3">
         <v>40.751964085297402</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
+        <v>40.549943883277216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -13287,8 +14924,12 @@
       <c r="E21" s="3">
         <v>42.660080156584897</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>42.660080156584954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -13304,8 +14945,12 @@
       <c r="E22" s="3">
         <v>43.508662074723397</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>43.487789605510329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13321,8 +14966,12 @@
       <c r="E23" s="3">
         <v>64.991877465769306</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
+        <v>64.980273845439783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13338,8 +14987,12 @@
       <c r="E24" s="3">
         <v>56.395816572807703</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="30">
+        <f t="shared" si="0"/>
+        <v>56.395816572807725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -13355,8 +15008,12 @@
       <c r="E25" s="3">
         <v>65.406135442793698</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="30">
+        <f t="shared" si="0"/>
+        <v>65.049199305421567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -13372,8 +15029,12 @@
       <c r="E26" s="3">
         <v>36.963465761629003</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="30">
+        <f t="shared" si="0"/>
+        <v>36.753843082451588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -13389,8 +15050,12 @@
       <c r="E27" s="3">
         <v>50.736870310825203</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="30">
+        <f t="shared" si="0"/>
+        <v>50.69667738478028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -13406,8 +15071,12 @@
       <c r="E28" s="3">
         <v>48.7140998699089</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="30">
+        <f t="shared" si="0"/>
+        <v>47.953567497248073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -13423,8 +15092,12 @@
       <c r="E29" s="3">
         <v>49.853117179849797</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="30">
+        <f t="shared" si="0"/>
+        <v>49.831356762049829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -13440,8 +15113,12 @@
       <c r="E30" s="3">
         <v>51.422001694299801</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="30">
+        <f t="shared" si="0"/>
+        <v>51.276775989350114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -13457,8 +15134,12 @@
       <c r="E31" s="3">
         <v>53.799126637554501</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="30">
+        <f t="shared" si="0"/>
+        <v>53.788209606986896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -13474,8 +15155,12 @@
       <c r="E32" s="3">
         <v>46.5647857889237</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="30">
+        <f t="shared" si="0"/>
+        <v>46.53866248693835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -13491,8 +15176,12 @@
       <c r="E33" s="3">
         <v>38.915334920095198</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="30">
+        <f t="shared" si="0"/>
+        <v>38.320299217953078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13508,8 +15197,12 @@
       <c r="E34" s="3">
         <v>53.015690225996799</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="30">
+        <f t="shared" si="0"/>
+        <v>52.986900820498057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -13525,8 +15218,12 @@
       <c r="E35" s="3">
         <v>57.109726047253197</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="30">
+        <f t="shared" si="0"/>
+        <v>57.080736338599799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -13542,8 +15239,12 @@
       <c r="E36" s="3">
         <v>51.686002385340998</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="30">
+        <f t="shared" si="0"/>
+        <v>51.675159926271277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -13559,8 +15260,12 @@
       <c r="E37" s="3">
         <v>59.0708989805375</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="30">
+        <f t="shared" si="0"/>
+        <v>58.978220574606119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -13576,8 +15281,12 @@
       <c r="E38" s="3">
         <v>80.253097811758494</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="30">
+        <f t="shared" si="0"/>
+        <v>80.239915634062754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -13593,8 +15302,12 @@
       <c r="E39" s="3">
         <v>69.417431609561007</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="30">
+        <f t="shared" si="0"/>
+        <v>69.362901026992645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -13610,8 +15323,12 @@
       <c r="E40" s="3">
         <v>64.601429779383494</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="30">
+        <f t="shared" si="0"/>
+        <v>64.601429779383508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -13627,8 +15344,12 @@
       <c r="E41" s="3">
         <v>55.694108665224498</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="30">
+        <f t="shared" si="0"/>
+        <v>55.668660134877214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -13644,8 +15365,12 @@
       <c r="E42" s="3">
         <v>58.393008860298501</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="30">
+        <f t="shared" si="0"/>
+        <v>58.247360116518998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -13661,8 +15386,12 @@
       <c r="E43" s="3">
         <v>57.614332861857598</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="30">
+        <f t="shared" si="0"/>
+        <v>57.614332861857612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -13678,8 +15407,12 @@
       <c r="E44" s="3">
         <v>26.768564858649999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="30">
+        <f t="shared" si="0"/>
+        <v>26.6468280806168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -13695,8 +15428,12 @@
       <c r="E45" s="3">
         <v>19.086859688195901</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="30">
+        <f t="shared" si="0"/>
+        <v>18.07349665924276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -13712,8 +15449,12 @@
       <c r="E46" s="3">
         <v>48.7162693214566</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="30">
+        <f t="shared" si="0"/>
+        <v>45.402148283992666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -13729,8 +15470,12 @@
       <c r="E47" s="3">
         <v>36.015484584543003</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="30">
+        <f t="shared" si="0"/>
+        <v>35.821927277754732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -13746,8 +15491,12 @@
       <c r="E48" s="3">
         <v>77.712337259764396</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="30">
+        <f t="shared" si="0"/>
+        <v>77.603843769373839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -13763,8 +15512,12 @@
       <c r="E49" s="3">
         <v>49.5197704877136</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="30">
+        <f t="shared" si="0"/>
+        <v>49.469876512411126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -13780,8 +15533,12 @@
       <c r="E50" s="3">
         <v>46.775658492279703</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="30">
+        <f t="shared" si="0"/>
+        <v>46.748410535876474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -13797,8 +15554,12 @@
       <c r="E51" s="3">
         <v>33.425056652638297</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="30">
+        <f t="shared" si="0"/>
+        <v>33.182259630948529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -13814,8 +15575,12 @@
       <c r="E52" s="3">
         <v>38.654539752234498</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="30">
+        <f t="shared" si="0"/>
+        <v>37.478438137055043</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -13831,8 +15596,12 @@
       <c r="E53" s="3">
         <v>37.325174825174798</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="30">
+        <f t="shared" si="0"/>
+        <v>36.822552447552447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -13848,8 +15617,12 @@
       <c r="E54" s="3">
         <v>51.903114186851198</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="30">
+        <f t="shared" si="0"/>
+        <v>51.903114186851212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13865,8 +15638,12 @@
       <c r="E55" s="3">
         <v>48.3070362473347</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="30">
+        <f t="shared" si="0"/>
+        <v>47.206823027718549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13882,8 +15659,12 @@
       <c r="E56" s="3">
         <v>58.361806260965899</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="30">
+        <f t="shared" si="0"/>
+        <v>58.140179148582511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13899,8 +15680,12 @@
       <c r="E57" s="3">
         <v>61.265274182868801</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="30">
+        <f t="shared" si="0"/>
+        <v>61.162944681875636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13916,8 +15701,12 @@
       <c r="E58" s="3">
         <v>44.197223211107101</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="30">
+        <f t="shared" si="0"/>
+        <v>44.019223923104306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13933,8 +15722,12 @@
       <c r="E59" s="3">
         <v>46.058128166385202</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="30">
+        <f t="shared" si="0"/>
+        <v>46.049240067549555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13950,8 +15743,12 @@
       <c r="E60" s="3">
         <v>69.663315407996194</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="30">
+        <f t="shared" si="0"/>
+        <v>69.499649286883326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -13967,8 +15764,12 @@
       <c r="E61" s="3">
         <v>69.744058500913994</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="30">
+        <f t="shared" si="0"/>
+        <v>69.652650822669102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -13984,8 +15785,12 @@
       <c r="E62" s="3">
         <v>79.398807981342301</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="30">
+        <f t="shared" si="0"/>
+        <v>79.372894532262251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14001,8 +15806,12 @@
       <c r="E63" s="3">
         <v>52.106589845156599</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="30">
+        <f t="shared" si="0"/>
+        <v>52.08858480374505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14018,8 +15827,12 @@
       <c r="E64" s="3">
         <v>37.384105960264897</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="30">
+        <f t="shared" si="0"/>
+        <v>37.284768211920529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14035,8 +15848,12 @@
       <c r="E65" s="3">
         <v>49.906191369605999</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="30">
+        <f t="shared" si="0"/>
+        <v>49.667405764966738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14052,8 +15869,12 @@
       <c r="E66" s="3">
         <v>54.438884917798397</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="30">
+        <f t="shared" si="0"/>
+        <v>54.424588992137238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -14069,8 +15890,12 @@
       <c r="E67" s="3">
         <v>40.541147412147701</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="30">
+        <f t="shared" ref="F67:F130" si="1">IF(B67=0,"",100*(C67)/B67)</f>
+        <v>39.193892444145057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -14086,8 +15911,12 @@
       <c r="E68" s="3">
         <v>48.235697156560398</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="30">
+        <f t="shared" si="1"/>
+        <v>48.081534772182252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -14103,8 +15932,12 @@
       <c r="E69" s="3">
         <v>51.431601272534401</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="30">
+        <f t="shared" si="1"/>
+        <v>51.431601272534465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -14120,8 +15953,12 @@
       <c r="E70" s="3">
         <v>64.615655853314493</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="30">
+        <f t="shared" si="1"/>
+        <v>64.615655853314522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -14137,8 +15974,12 @@
       <c r="E71" s="3">
         <v>62.205466540998998</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="30">
+        <f t="shared" si="1"/>
+        <v>62.192002154301875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -14154,8 +15995,12 @@
       <c r="E72" s="3">
         <v>34.571474513587397</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="30">
+        <f t="shared" si="1"/>
+        <v>34.28203891300852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -14171,8 +16016,12 @@
       <c r="E73" s="3">
         <v>34.304807870799998</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="30">
+        <f t="shared" si="1"/>
+        <v>34.174865416744012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -14188,8 +16037,12 @@
       <c r="E74" s="3">
         <v>38.786535531237</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="30">
+        <f t="shared" si="1"/>
+        <v>38.592602853580829</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -14205,8 +16058,12 @@
       <c r="E75" s="3">
         <v>78.568225975190501</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="30">
+        <f t="shared" si="1"/>
+        <v>78.403826034972354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -14222,8 +16079,12 @@
       <c r="E76" s="3">
         <v>65.130434782608702</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="30">
+        <f t="shared" si="1"/>
+        <v>64.913043478260875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -14239,8 +16100,12 @@
       <c r="E77" s="3">
         <v>63.191459864134202</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="30">
+        <f t="shared" si="1"/>
+        <v>63.136004436434213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -14256,8 +16121,12 @@
       <c r="E78" s="3">
         <v>53.366131538063101</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="30">
+        <f t="shared" si="1"/>
+        <v>53.366131538063179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -14273,8 +16142,12 @@
       <c r="E79" s="3">
         <v>68.247126436781599</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="30">
+        <f t="shared" si="1"/>
+        <v>68.22660098522168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -14290,8 +16163,12 @@
       <c r="E80" s="3">
         <v>34.1849148418491</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="30">
+        <f t="shared" si="1"/>
+        <v>30.644768856447687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -14307,8 +16184,12 @@
       <c r="E81" s="3">
         <v>24.0063761955366</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="30">
+        <f t="shared" si="1"/>
+        <v>23.655685441020193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -14324,8 +16205,12 @@
       <c r="E82" s="3">
         <v>41.058214109521401</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="30">
+        <f t="shared" si="1"/>
+        <v>40.959546127281698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -14341,8 +16226,12 @@
       <c r="E83" s="3">
         <v>64.840925524222698</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="30">
+        <f t="shared" si="1"/>
+        <v>64.786695589298631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -14358,8 +16247,12 @@
       <c r="E84" s="3">
         <v>27.988016398612402</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="30">
+        <f t="shared" si="1"/>
+        <v>27.625354777672658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -14375,8 +16268,12 @@
       <c r="E85" s="3">
         <v>49.014358724750501</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="30">
+        <f t="shared" si="1"/>
+        <v>48.795327330250672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -14392,8 +16289,12 @@
       <c r="E86" s="3">
         <v>47.276395427034203</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="30">
+        <f t="shared" si="1"/>
+        <v>47.108271687962343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -14409,8 +16310,12 @@
       <c r="E87" s="3">
         <v>65.617291201691501</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="30">
+        <f t="shared" si="1"/>
+        <v>65.617291201691529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -14426,8 +16331,12 @@
       <c r="E88" s="3">
         <v>61.996199619961999</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="30">
+        <f t="shared" si="1"/>
+        <v>61.896189618961898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -14443,8 +16352,12 @@
       <c r="E89" s="3">
         <v>48.690406121247698</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="30">
+        <f t="shared" si="1"/>
+        <v>48.660977045320777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -14460,8 +16373,12 @@
       <c r="E90" s="3">
         <v>50.847600573500799</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="30">
+        <f t="shared" si="1"/>
+        <v>50.358438053470522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -14477,8 +16394,12 @@
       <c r="E91" s="3">
         <v>53.791501571252901</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="30">
+        <f t="shared" si="1"/>
+        <v>53.777838502527665</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -14494,8 +16415,12 @@
       <c r="E92" s="3">
         <v>82.693492096078799</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="30">
+        <f t="shared" si="1"/>
+        <v>82.385547115582014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -14511,8 +16436,12 @@
       <c r="E93" s="3">
         <v>40.598340539908797</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="30">
+        <f t="shared" si="1"/>
+        <v>40.282809395816294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -14528,8 +16457,12 @@
       <c r="E94" s="3">
         <v>63.820384889522401</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="30">
+        <f t="shared" si="1"/>
+        <v>63.820384889522451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -14545,8 +16478,12 @@
       <c r="E95" s="3">
         <v>41.600618596559002</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="30">
+        <f t="shared" si="1"/>
+        <v>41.465300599265419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -14562,8 +16499,12 @@
       <c r="E96" s="3">
         <v>37.653814602132897</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="30">
+        <f t="shared" si="1"/>
+        <v>36.04593929450369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -14579,8 +16520,12 @@
       <c r="E97" s="3">
         <v>56.638556579721502</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="30">
+        <f t="shared" si="1"/>
+        <v>56.628750735438324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -14596,8 +16541,12 @@
       <c r="E98" s="3">
         <v>46.083827265029598</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="30">
+        <f t="shared" si="1"/>
+        <v>46.052074513124474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -14613,8 +16562,12 @@
       <c r="E99" s="3">
         <v>75.058499655884305</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="30">
+        <f t="shared" si="1"/>
+        <v>75.017205781142465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -14630,710 +16583,1114 @@
       <c r="E100" s="3">
         <v>51.015801354401802</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="30">
+        <f t="shared" si="1"/>
+        <v>51.015801354401809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="30" t="str">
+        <f t="shared" ref="F131:F194" si="2">IF(B131=0,"",100*(C131)/B131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="30" t="str">
+        <f t="shared" ref="F195:F200" si="3">IF(B195=0,"",100*(C195)/B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
+      <c r="F200" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15346,7 +17703,7 @@
   <dimension ref="B2:V16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15371,29 +17728,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="P2" s="26" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="P2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="U2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="26"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -15444,7 +17801,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15">
-        <f>Processado!F2</f>
+        <f>Processado!G2</f>
         <v>52.855816467813042</v>
       </c>
       <c r="D4" s="15"/>
@@ -15503,7 +17860,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="15">
-        <f>Processado!F3</f>
+        <f>Processado!G3</f>
         <v>14.300579288825407</v>
       </c>
       <c r="D5" s="15"/>
@@ -15514,7 +17871,7 @@
         <v>25.97395555405144</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I14" si="1">_xlfn.CONCAT("(",ROUND(H4, 2),"; ", IF(ISNUMBER(H5),_xlfn.CONCAT(ROUND(H5, 2),"]"),_xlfn.CONCAT(H5,")")))</f>
+        <f t="shared" ref="I5:I13" si="1">_xlfn.CONCAT("(",ROUND(H4, 2),"; ", IF(ISNUMBER(H5),_xlfn.CONCAT(ROUND(H5, 2),"]"),_xlfn.CONCAT(H5,")")))</f>
         <v>(19,09; 25,97]</v>
       </c>
       <c r="J5">
@@ -15561,7 +17918,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="15">
-        <f>Processado!F6</f>
+        <f>Processado!G8</f>
         <v>19.086859688195901</v>
       </c>
       <c r="D6" s="15"/>
@@ -15620,7 +17977,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="15">
-        <f>Processado!F7</f>
+        <f>Processado!G9</f>
         <v>87.957818346751296</v>
       </c>
       <c r="D7" s="15"/>
@@ -15836,11 +18193,11 @@
         <f t="shared" si="4"/>
         <v>0.92497463434739235</v>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="26" t="str">
         <f>IF(S16&lt;V9,"Há indícios de normalidade","NÃO há indícios de normalidade")</f>
         <v>Há indícios de normalidade</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="26"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -15893,8 +18250,8 @@
         <f t="shared" si="4"/>
         <v>5.7982696461495536E-2</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H12" s="15">
@@ -15937,8 +18294,8 @@
         <f>((Q12-R12)^2)/R12</f>
         <v>0.86339262406444106</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H13" s="15">
@@ -15954,11 +18311,11 @@
         <v>96</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K14" si="9">J13-J12</f>
+        <f t="shared" ref="K13" si="9">J13-J12</f>
         <v>6</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" ref="L13:L14" si="10">100*K13/$C$9</f>
+        <f t="shared" ref="L13" si="10">100*K13/$C$9</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="M13" s="15">
